--- a/Misc/Data/mBasicInt1.xlsx
+++ b/Misc/Data/mBasicInt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Coal</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>id2hvt/hvt</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t>FOM/id</t>
+  </si>
+  <si>
+    <t>FOM/FOM</t>
+  </si>
+  <si>
+    <t>( 1000 EUR / (GJ/h generating capacity) ) / year</t>
   </si>
 </sst>
 </file>
@@ -526,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,17 +628,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -641,7 +661,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +764,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,10 +958,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +972,7 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -979,8 +1005,15 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <f>31000/(1000*3.6)</f>
+        <v>8.6111111111111107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -993,8 +1026,15 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <f>29300/(1000*3.6)</f>
+        <v>8.1388888888888893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1007,8 +1047,15 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <f>28800/(1000*3.6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1020,6 +1067,13 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f>50000/(1000*3.6)</f>
+        <v>13.888888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1087,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1176,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1251,7 @@
         <v>0.8</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/Data/mBasicInt1.xlsx
+++ b/Misc/Data/mBasicInt1.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
     <sheet name="Fundamentals" sheetId="9" r:id="rId2"/>
     <sheet name="Load" sheetId="3" r:id="rId3"/>
-    <sheet name="MWP" sheetId="8" r:id="rId4"/>
+    <sheet name="Scalars" sheetId="8" r:id="rId4"/>
     <sheet name="Generators_FuelMix" sheetId="10" r:id="rId5"/>
     <sheet name="Generators_Other" sheetId="11" r:id="rId6"/>
     <sheet name="Generators_Categories" sheetId="12" r:id="rId7"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Coal</t>
   </si>
@@ -150,12 +150,6 @@
     <t>GJ input / GJ output</t>
   </si>
   <si>
-    <t>Load/l</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>Load/Load</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>LoadVariation</t>
   </si>
   <si>
-    <t>LoadVariation/l</t>
-  </si>
-  <si>
     <t>LoadVariation/h</t>
   </si>
   <si>
@@ -208,6 +199,21 @@
   </si>
   <si>
     <t>( 1000 EUR / (GJ/h generating capacity) ) / year</t>
+  </si>
+  <si>
+    <t>CO2Cap</t>
+  </si>
+  <si>
+    <t>RESCap</t>
+  </si>
+  <si>
+    <t>Load/c</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>LoadVariation/c</t>
   </si>
 </sst>
 </file>
@@ -628,26 +634,26 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -739,13 +745,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>10.335570469798657</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -763,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,30 +784,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -823,7 +829,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -834,7 +840,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -851,20 +857,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +958,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -960,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +1008,10 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,10 +1126,10 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,7 +1208,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
@@ -1195,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Misc/Data/mBasicInt1.xlsx
+++ b/Misc/Data/mBasicInt1.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Misc/Data/mBasicInt1.xlsx
+++ b/Misc/Data/mBasicInt1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -547,20 +547,20 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -592,7 +592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -600,7 +600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -608,7 +608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -616,7 +616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -624,7 +624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -632,7 +632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -648,7 +648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -667,20 +667,20 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -769,20 +769,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -799,7 +799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -860,12 +860,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -873,7 +876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -881,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -898,14 +901,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -922,7 +927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -939,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -956,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -982,19 +987,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>8.6111111111111107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>8.1388888888888893</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1112,13 +1117,13 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1201,12 +1206,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
